--- a/4月11日PBacklog.xlsx
+++ b/4月11日PBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\智园\故事点excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhurong\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="367">
   <si>
     <t>编号</t>
   </si>
@@ -1357,6 +1357,14 @@
   </si>
   <si>
     <t>弹出速度调整为与团购商品相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片位置，添加默认的等待加载图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的等待加载图片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9533,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9906,6 +9914,14 @@
       <c r="D27" s="15"/>
       <c r="E27" s="22" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/4月11日PBacklog.xlsx
+++ b/4月11日PBacklog.xlsx
@@ -9543,8 +9543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/4月11日PBacklog.xlsx
+++ b/4月11日PBacklog.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="368">
   <si>
     <t>编号</t>
   </si>
@@ -1268,10 +1268,6 @@
     <t>内容</t>
   </si>
   <si>
-    <t>收货地址——手机号没有基础验证
-验证规则：11位数字，以1开头。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1309,10 +1305,6 @@
   </si>
   <si>
     <t>订单状态接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称改为：学校商城</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1365,6 +1357,23 @@
   </si>
   <si>
     <t>默认的等待加载图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚不做：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称改为：学校商城
+涉及的地方有：
+1、底部Tab名称。
+2、学校商城TAB内的，ActionBar上的标题。
+3、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址——手机号没有基础验证
+验证规则：11位数字，以1开头。APP内所有的手机号不正确时提示：“”请输入正确格式的手机号。“</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9543,8 +9552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9567,37 +9576,37 @@
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="22" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21">
@@ -9610,11 +9619,11 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21">
@@ -9627,11 +9636,11 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21">
@@ -9644,11 +9653,11 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21">
@@ -9661,11 +9670,11 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21">
@@ -9710,7 +9719,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21">
@@ -9725,14 +9734,14 @@
       <c r="C11" s="23"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>21</v>
       </c>
@@ -9740,7 +9749,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21">
@@ -9754,10 +9763,10 @@
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
       <c r="D13" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21">
@@ -9772,7 +9781,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21">
@@ -9877,7 +9886,7 @@
       <c r="C21" s="23"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21">
@@ -9899,12 +9908,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>365</v>
+      </c>
+    </row>
     <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -9913,15 +9927,15 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -9935,6 +9949,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9943,7 +9958,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51:G51"/>
     </sheetView>
   </sheetViews>
@@ -10634,7 +10649,7 @@
         <v>311</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I51" s="15">
         <v>22</v>
@@ -12868,8 +12883,8 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
